--- a/docs/CasosPrueba - Estadística/CP - MediaAr.xlsx
+++ b/docs/CasosPrueba - Estadística/CP - MediaAr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2cc5a38752f2b5bf/Ingeniería/Cuarto/Primer Cuatrimestre/Validación y Pruebas/Prácticas/Práctica 2/TDD-ACB-JGA/docs/CasosPrueba - Estadística/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="116" documentId="13_ncr:1_{D3CE32E0-4ADA-441D-8539-F74141AE4C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B6D7DA7-2252-4CDB-AD35-94B98FA1BEA6}"/>
+  <xr:revisionPtr revIDLastSave="120" documentId="13_ncr:1_{D3CE32E0-4ADA-441D-8539-F74141AE4C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3230F65-96E6-4CBD-94C3-90A15A4A6830}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{12BA3133-949C-4B91-9275-35525239132A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{12BA3133-949C-4B91-9275-35525239132A}"/>
   </bookViews>
   <sheets>
     <sheet name="CP-001" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="52">
   <si>
     <t>Nombre Proyecto:</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>Devuelve verdadero</t>
+  </si>
+  <si>
+    <t>RF-010</t>
   </si>
 </sst>
 </file>
@@ -268,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -289,35 +292,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -330,6 +312,15 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -781,23 +772,23 @@
   <dimension ref="B2:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" customWidth="1"/>
-    <col min="5" max="5" width="27.44140625" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="4" t="s">
         <v>21</v>
       </c>
@@ -808,11 +799,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="4" t="s">
         <v>23</v>
       </c>
@@ -821,99 +812,101 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="14" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="14"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="13" t="s">
+      <c r="F4" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="24" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="13" t="s">
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>1</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="13" t="s">
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="22"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="2" t="s">
         <v>8</v>
       </c>
@@ -921,105 +914,110 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
         <v>1</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="16"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <v>2</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="16"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="23" t="s">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
         <v>1</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="13" t="s">
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="21" t="s">
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="19" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="20" t="s">
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="20"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="12"/>
+      <c r="F22" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D20:F21"/>
@@ -1034,11 +1032,6 @@
     <mergeCell ref="B6:F8"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
   </mergeCells>
   <conditionalFormatting sqref="D22">
     <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
@@ -1060,139 +1053,141 @@
   <dimension ref="B2:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:F18"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="38.21875" customWidth="1"/>
-    <col min="5" max="5" width="27.44140625" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="14" t="s">
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="14"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="13" t="s">
+      <c r="F4" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="24" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="13" t="s">
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="9" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>1</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="13" t="s">
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="9" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="22"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="2" t="s">
         <v>8</v>
       </c>
@@ -1200,105 +1195,117 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
         <v>1</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D14" s="17"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <v>2</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="11" t="s">
+      <c r="D15" s="17"/>
+      <c r="E15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="23" t="s">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="9" t="s">
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
         <v>1</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="13" t="s">
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="21" t="s">
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="19" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="20" t="s">
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="20"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="12"/>
+      <c r="F22" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="C17:F17"/>
@@ -1306,18 +1313,6 @@
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="B20:C21"/>
     <mergeCell ref="D20:F21"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F8"/>
-    <mergeCell ref="B9:F9"/>
   </mergeCells>
   <conditionalFormatting sqref="D22">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
@@ -1339,139 +1334,141 @@
   <dimension ref="B2:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:D15"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="38.21875" customWidth="1"/>
-    <col min="5" max="5" width="27.44140625" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="14" t="s">
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="14"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="13" t="s">
+      <c r="F4" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="24" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="13" t="s">
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="9" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>1</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="13" t="s">
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="9" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="22"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="2" t="s">
         <v>8</v>
       </c>
@@ -1479,105 +1476,117 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
         <v>1</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D14" s="17"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <v>2</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="11" t="s">
+      <c r="D15" s="17"/>
+      <c r="E15" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="23" t="s">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="9" t="s">
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
         <v>1</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="13" t="s">
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="21" t="s">
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="19" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="20" t="s">
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="20"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="12"/>
+      <c r="F22" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="C17:F17"/>
@@ -1585,18 +1594,6 @@
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="B20:C21"/>
     <mergeCell ref="D20:F21"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F8"/>
-    <mergeCell ref="B9:F9"/>
   </mergeCells>
   <conditionalFormatting sqref="D22">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
@@ -1618,150 +1615,152 @@
   <dimension ref="B2:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:F24"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="49.88671875" customWidth="1"/>
-    <col min="5" max="5" width="27.44140625" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="49.85546875" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="14" t="s">
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="14"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="13" t="s">
+      <c r="F4" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="24" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="13" t="s">
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="9" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>1</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>2</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="13" t="s">
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="9" t="s">
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="22"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="2" t="s">
         <v>8</v>
       </c>
@@ -1769,131 +1768,142 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <v>1</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D15" s="17"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
         <v>2</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D16" s="17"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>3</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="11" t="s">
+      <c r="D17" s="17"/>
+      <c r="E17" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
         <v>4</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="11" t="s">
+      <c r="D18" s="17"/>
+      <c r="E18" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="23" t="s">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="9" t="s">
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="6">
         <v>1</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="13" t="s">
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="21" t="s">
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="19" t="s">
+      <c r="C23" s="14"/>
+      <c r="D23" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="20" t="s">
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="20"/>
+      <c r="C25" s="13"/>
       <c r="D25" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="12"/>
+      <c r="F25" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F8"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C17:D17"/>
@@ -1904,18 +1914,7 @@
     <mergeCell ref="B22:F22"/>
     <mergeCell ref="B23:C24"/>
     <mergeCell ref="D23:F24"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F8"/>
-    <mergeCell ref="B9:F9"/>
   </mergeCells>
   <conditionalFormatting sqref="D25">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
